--- a/Projects/Vehicle Access Card/DMM Access cards details.xlsx
+++ b/Projects/Vehicle Access Card/DMM Access cards details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Training Class\Project\Vehicle Access Card Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Training Class\Python\Exercise\Projects\Vehicle Access Card\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,70 +35,70 @@
     <t>Access card no</t>
   </si>
   <si>
+    <t>Vehicle no</t>
+  </si>
+  <si>
     <t>Valid from</t>
   </si>
   <si>
     <t>Valid till</t>
   </si>
   <si>
-    <t>Vehicle no</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
+    <t>A12345</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
+    <t>B22345</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>C32345</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
+    <t>D42345</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
+    <t>E52345</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
+    <t>F62345</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
+    <t>G72345</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
+    <t>H82345</t>
+  </si>
+  <si>
     <t>I</t>
   </si>
   <si>
+    <t>I92345</t>
+  </si>
+  <si>
     <t>J</t>
-  </si>
-  <si>
-    <t>A12345</t>
-  </si>
-  <si>
-    <t>B22345</t>
-  </si>
-  <si>
-    <t>C32345</t>
-  </si>
-  <si>
-    <t>D42345</t>
-  </si>
-  <si>
-    <t>E52345</t>
-  </si>
-  <si>
-    <t>F62345</t>
-  </si>
-  <si>
-    <t>G72345</t>
-  </si>
-  <si>
-    <t>H82345</t>
-  </si>
-  <si>
-    <t>I92345</t>
   </si>
   <si>
     <t>J12345</t>
@@ -473,7 +473,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,13 +496,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
         <v>44197</v>
@@ -530,13 +530,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>44229</v>
@@ -550,13 +550,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2">
         <v>44258</v>
@@ -570,13 +570,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>44206</v>
@@ -590,13 +590,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>44197</v>
@@ -610,13 +610,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2">
         <v>44229</v>
@@ -630,13 +630,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2">
         <v>44258</v>
@@ -650,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>44206</v>
@@ -670,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2">
         <v>44258</v>
@@ -690,7 +690,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>110</v>
